--- a/WavePainter_BOM.xlsx
+++ b/WavePainter_BOM.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Desktop/WavePainter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A2945A-FA40-1B4B-8934-A7678DBD8DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB38CDE-094A-E14E-9B86-61B108509CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{F6869F9D-9321-564D-A16E-4835D1801B5C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20540" xr2:uid="{F6869F9D-9321-564D-A16E-4835D1801B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="WavePainter_1.0" localSheetId="0">Sheet1!$A$1:$I$32</definedName>
+    <definedName name="WavePainter_1.0" localSheetId="0">Sheet1!$A$1:$I$31</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="124">
   <si>
     <t>Qty</t>
   </si>
@@ -128,24 +128,9 @@
     <t>10u</t>
   </si>
   <si>
-    <t>C-USC1206</t>
-  </si>
-  <si>
-    <t>C1206</t>
-  </si>
-  <si>
-    <t>C6, C9</t>
-  </si>
-  <si>
     <t>CPOL-USC</t>
   </si>
   <si>
-    <t>PANASONIC_C</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
     <t>POLARIZED CAPACITOR, American symbol</t>
   </si>
   <si>
@@ -290,9 +275,6 @@
     <t>80-C0805C104J5RAUTO</t>
   </si>
   <si>
-    <t>80-C1206C106J3RAUTO</t>
-  </si>
-  <si>
     <t>667-EEE-FK1E100R</t>
   </si>
   <si>
@@ -335,12 +317,6 @@
     <t>649-77313-124-40LF</t>
   </si>
   <si>
-    <t>Pin Headers Male 2.54 - 2X4pins</t>
-  </si>
-  <si>
-    <t>PINHEAD 2.54mm Dual row of 4p</t>
-  </si>
-  <si>
     <t>Pin Headers 2.54mm - dual row of 40pins - cut for J7/J8</t>
   </si>
   <si>
@@ -410,9 +386,6 @@
     <t>For scope bards</t>
   </si>
   <si>
-    <t>652-PEC11L4220FS0015</t>
-  </si>
-  <si>
     <t>PEC11L-4220F-S0015</t>
   </si>
   <si>
@@ -434,13 +407,28 @@
     <t>https://www.aliexpress.com/item/32800873842.html</t>
   </si>
   <si>
-    <t xml:space="preserve">WAVE2 Partial kit from Pusherman </t>
-  </si>
-  <si>
     <t>WavePainter conversion PCB from Pusherman</t>
   </si>
   <si>
     <t>WavePainter Panel from Pusherman</t>
+  </si>
+  <si>
+    <t>652-PEC11L4220FS0015 (20mm shaft) or 652-PEC11L4215FS0015 (15mm shaft)</t>
+  </si>
+  <si>
+    <t>Pin Headers Male 2.54 - 2X3pins</t>
+  </si>
+  <si>
+    <t>PINHEAD 2.54mm Dual row of 3p</t>
+  </si>
+  <si>
+    <t>PANASONIC_B</t>
+  </si>
+  <si>
+    <t>C6, C9, C10</t>
+  </si>
+  <si>
+    <t>WAVE2 Partial kit from Pusherman or DIY kit from JYETEC</t>
   </si>
 </sst>
 </file>
@@ -854,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BEAB41-25D7-CB4D-BEFF-D59ECBD07010}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -867,7 +855,7 @@
     <col min="3" max="3" width="33.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="78.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -894,7 +882,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -905,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -913,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -921,12 +909,12 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -934,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
@@ -946,7 +934,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>19</v>
@@ -957,19 +945,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>19</v>
@@ -980,7 +968,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -989,10 +977,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>19</v>
@@ -1015,7 +1003,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>19</v>
@@ -1023,7 +1011,7 @@
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -1043,7 +1031,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>15</v>
@@ -1051,7 +1039,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>22</v>
@@ -1060,126 +1048,126 @@
         <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="F17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="3" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="20" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>52</v>
@@ -1191,227 +1179,227 @@
         <v>54</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="3" t="s">
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="20" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="C22" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>122</v>
+        <v>90</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -1419,19 +1407,16 @@
         <v>63</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="F34" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1439,42 +1424,22 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F31" r:id="rId1" xr:uid="{8132A260-A2A4-0443-ABBF-AFBC38396822}"/>
-    <hyperlink ref="F36" r:id="rId2" xr:uid="{EC42223F-EA3D-4A4C-959D-12FB945E0BA2}"/>
-    <hyperlink ref="F28" r:id="rId3" xr:uid="{03378D81-7D20-504F-89FB-8B10401F6382}"/>
-    <hyperlink ref="F29" r:id="rId4" xr:uid="{B5BF4B70-5027-6646-8B9F-B67107F921F7}"/>
-    <hyperlink ref="F30" r:id="rId5" xr:uid="{EAF5D966-D818-2E49-B348-C82375C4ADA2}"/>
+    <hyperlink ref="F30" r:id="rId1" xr:uid="{8132A260-A2A4-0443-ABBF-AFBC38396822}"/>
+    <hyperlink ref="F35" r:id="rId2" xr:uid="{EC42223F-EA3D-4A4C-959D-12FB945E0BA2}"/>
+    <hyperlink ref="F27" r:id="rId3" xr:uid="{03378D81-7D20-504F-89FB-8B10401F6382}"/>
+    <hyperlink ref="F28" r:id="rId4" xr:uid="{B5BF4B70-5027-6646-8B9F-B67107F921F7}"/>
+    <hyperlink ref="F29" r:id="rId5" xr:uid="{EAF5D966-D818-2E49-B348-C82375C4ADA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/WavePainter_BOM.xlsx
+++ b/WavePainter_BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Desktop/WavePainter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB38CDE-094A-E14E-9B86-61B108509CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0213C705-6FC5-8D4A-B5A7-E6B0ECA3D95A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20540" xr2:uid="{F6869F9D-9321-564D-A16E-4835D1801B5C}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="WavePainter_1.0" localSheetId="0">Sheet1!$A$1:$I$31</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -389,9 +391,6 @@
     <t>PEC11L-4220F-S0015</t>
   </si>
   <si>
-    <t>667-EEE-1EA100SR</t>
-  </si>
-  <si>
     <t>Black Screw M3 / &gt; 10mm Length</t>
   </si>
   <si>
@@ -429,6 +428,9 @@
   </si>
   <si>
     <t>WAVE2 Partial kit from Pusherman or DIY kit from JYETEC</t>
+  </si>
+  <si>
+    <t>667-EEE-FK1V470P</t>
   </si>
 </sst>
 </file>
@@ -845,7 +847,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -893,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -901,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -909,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1048,10 +1050,10 @@
         <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>72</v>
@@ -1077,7 +1079,7 @@
         <v>42</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>24</v>
@@ -1229,10 +1231,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>8</v>
@@ -1294,7 +1296,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>101</v>
@@ -1308,13 +1310,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1322,13 +1324,13 @@
         <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1416,7 +1418,7 @@
         <v>65</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">

--- a/WavePainter_BOM.xlsx
+++ b/WavePainter_BOM.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0213C705-6FC5-8D4A-B5A7-E6B0ECA3D95A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8408BCB3-AA3E-1E4B-A036-6783B02692FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20540" xr2:uid="{F6869F9D-9321-564D-A16E-4835D1801B5C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{F6869F9D-9321-564D-A16E-4835D1801B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="WavePainter_1.0" localSheetId="0">Sheet1!$A$1:$I$31</definedName>
+    <definedName name="WavePainter_1.0" localSheetId="0">Sheet1!$A$1:$I$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="127">
   <si>
     <t>Qty</t>
   </si>
@@ -346,15 +346,6 @@
     <t>855-M7582-05</t>
   </si>
   <si>
-    <t>Jumper Wire 10cm</t>
-  </si>
-  <si>
-    <t>854-ZW-FF-10</t>
-  </si>
-  <si>
-    <t>Pack of 40 - only 2 needed</t>
-  </si>
-  <si>
     <t>Knob D Shaft for the encoder</t>
   </si>
   <si>
@@ -431,6 +422,24 @@
   </si>
   <si>
     <t>667-EEE-FK1V470P</t>
+  </si>
+  <si>
+    <t>https://pushermanproductions.com/product/wave-painter-dual-channel-oscilloscope-eurorack-partial-kit-14hp/</t>
+  </si>
+  <si>
+    <t>M3 / 4mm Length screw</t>
+  </si>
+  <si>
+    <t>M3 / 6mm Length screw</t>
+  </si>
+  <si>
+    <t>you can cut 6mm Nylon screws</t>
+  </si>
+  <si>
+    <t>https://www.taydaelectronics.com/m3-stainless-steel-screw-cross-round-head-m3x4mm.html</t>
+  </si>
+  <si>
+    <t>https://www.taydaelectronics.com/m3-stainless-steel-screw-cross-round-head-m3x6mm.html</t>
   </si>
 </sst>
 </file>
@@ -844,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BEAB41-25D7-CB4D-BEFF-D59ECBD07010}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="99" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -895,7 +904,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -903,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -911,12 +923,12 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -1013,7 +1025,7 @@
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -1050,10 +1062,10 @@
         <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>72</v>
@@ -1079,7 +1091,7 @@
         <v>42</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>24</v>
@@ -1087,7 +1099,7 @@
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1115,7 +1127,7 @@
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -1189,7 +1201,7 @@
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -1231,10 +1243,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>8</v>
@@ -1279,44 +1291,44 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>96</v>
+        <v>107</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="G28" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1324,101 +1336,92 @@
         <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>5</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3" t="s">
+    <row r="32" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="20" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>1</v>
-      </c>
-      <c r="B33" s="3" t="s">
+    <row r="33" spans="1:7" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>1</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1426,22 +1429,45 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F30" r:id="rId1" xr:uid="{8132A260-A2A4-0443-ABBF-AFBC38396822}"/>
-    <hyperlink ref="F35" r:id="rId2" xr:uid="{EC42223F-EA3D-4A4C-959D-12FB945E0BA2}"/>
-    <hyperlink ref="F27" r:id="rId3" xr:uid="{03378D81-7D20-504F-89FB-8B10401F6382}"/>
-    <hyperlink ref="F28" r:id="rId4" xr:uid="{B5BF4B70-5027-6646-8B9F-B67107F921F7}"/>
-    <hyperlink ref="F29" r:id="rId5" xr:uid="{EAF5D966-D818-2E49-B348-C82375C4ADA2}"/>
+    <hyperlink ref="F31" r:id="rId1" xr:uid="{8132A260-A2A4-0443-ABBF-AFBC38396822}"/>
+    <hyperlink ref="F36" r:id="rId2" xr:uid="{EC42223F-EA3D-4A4C-959D-12FB945E0BA2}"/>
+    <hyperlink ref="F26" r:id="rId3" xr:uid="{03378D81-7D20-504F-89FB-8B10401F6382}"/>
+    <hyperlink ref="F27" r:id="rId4" xr:uid="{B5BF4B70-5027-6646-8B9F-B67107F921F7}"/>
+    <hyperlink ref="F28" r:id="rId5" xr:uid="{EAF5D966-D818-2E49-B348-C82375C4ADA2}"/>
+    <hyperlink ref="F2" r:id="rId6" xr:uid="{51ED48CB-8DD9-964F-965F-3F99743D908A}"/>
+    <hyperlink ref="F30" r:id="rId7" xr:uid="{7FF99628-ECFC-2148-A08F-86A60D064B5A}"/>
+    <hyperlink ref="F29" r:id="rId8" xr:uid="{6C6F08C5-AD07-DB4B-BAC5-19C051367E86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
